--- a/数据整理/stocks/A股/创业板/300347-泰格医药.xlsx
+++ b/数据整理/stocks/A股/创业板/300347-泰格医药.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44542,4 +44543,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>375</v>
+      </c>
+      <c r="D2" t="n">
+        <v>313.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>308</v>
+      </c>
+      <c r="D3" t="n">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>242</v>
+      </c>
+      <c r="D4" t="n">
+        <v>175.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>231</v>
+      </c>
+      <c r="D5" t="n">
+        <v>178.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300347-泰格医药.xlsx
+++ b/数据整理/stocks/A股/创业板/300347-泰格医药.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44551,7 +44552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44562,17 +44563,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -44582,14 +44603,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>375</v>
-      </c>
-      <c r="D2" t="n">
-        <v>313.65</v>
+          <t>003096</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>434.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>25.9849</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -44598,14 +44641,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>308</v>
-      </c>
-      <c r="D3" t="n">
-        <v>261</v>
+          <t>180012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华富裕主题混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>227.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>17.3818</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -44614,14 +44679,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>242</v>
-      </c>
-      <c r="D4" t="n">
-        <v>175.79</v>
+          <t>004851</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>136.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>11.0631</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -44630,13 +44717,7027 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>163.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>10.2936</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>140.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7.2570</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006228</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>130.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6.3375</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009542</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华富利精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.2890</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>55.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.8753</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信医疗保健行业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>49.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.7039</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>40.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.5562</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>37.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.4036</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006229</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>48.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.3677</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达沪深300医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>75.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.3331</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009360</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商创新增长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>44.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.2913</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>34.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.1855</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>39.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.9172</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>37.74</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.9172</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.9035</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>27.91</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.9035</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501009</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>37.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.8585</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011932</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>67.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.6576</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009163</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.6273</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.5698</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.5565</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011373</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>17.38</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.3139</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012888</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>26.21</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>62.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.1899</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.0297</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9897</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银河医药健康混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.9871</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.9777</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>19.31</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.9520</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.8869</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010275</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>19.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.8514</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>501010</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>17.03</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.8447</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159837</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>易方达中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>17.67</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.8429</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519670</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银河行业混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.8304</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>16.21</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.8267</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012178</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银华富饶精选三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>13.12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.8056</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004476</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深领先科技股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>24.76</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.7973</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.7972</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>515120</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.7450</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.7392</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.7319</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.7014</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>15.72</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.7011</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.6547</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>64.30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.6543</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009507</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.6479</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000020</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>景顺长城品质投资混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.6476</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>17.55</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.6441</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009557</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.6438</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.6363</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>180003</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银华-道琼斯88指数 A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.6303</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159828</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国泰中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>13.90</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.6283</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.6032</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010731</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.5640</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.5461</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010314</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫内需增长混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.5035</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>233007</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>大摩卓越成长混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.4930</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.4470</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.4398</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.4019</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>14.76</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3734</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3661</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009114</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3415</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3304</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3242</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159938</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发中证全指医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>17.37</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.3005</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2990</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>160219</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2956</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2886</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2832</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2724</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2642</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2635</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>159929</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>汇添富中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2380</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>180013</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>银华领先策略混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2366</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>003069</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2353</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>000117</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>广发轮动配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2294</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>159839</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>汇添富国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2291</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2277</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>161035</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>富国中证医药主题指数增强型（LOF）</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2039</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>11.33</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1926</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>000477</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>广发主题领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1855</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1775</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001496</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>工银瑞信聚焦30股票</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001559</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1748</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1699</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>004976</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>47.27</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1692</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>004977</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>47.27</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1692</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1584</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>159859</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1496</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>516080</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>易方达中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>98.36</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1456</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>516930</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>民生加银中证生物科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1377</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>96.38</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1349</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009981</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1253</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>003095</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010732</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>159847</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>易方达中证医疗交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>012889</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>62.65</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011288</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>012023</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>兴业聚乾混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011933</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>009508</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011374</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>012358</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>011788</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>工银聚益混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>003581</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>517110</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>98.17</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>000904</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>银华回报灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>64.30</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>工银瑞信现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>012401</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>009361</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>招商创新增长混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>013441</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>西藏东财创新医疗六个月定开混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>004987</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>诺德新享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>001547</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>159849</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>招商中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>002923</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>163118</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>010276</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>516060</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>工银瑞信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>516500</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>华夏中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>003070</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>159858</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>南方中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>008551</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>010781</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>160635</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>159835</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>建信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>96.92</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>002498</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>80.23</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>004394</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创优灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>161811</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>银华沪深300指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>012402</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>009115</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>007111</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>008552</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>兴业聚源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>兴业聚盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>002668</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>兴业聚丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>009982</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>012598</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>011289</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>上银医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>012599</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>010782</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>010366</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>008221</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>20.60</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>012359</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>汇丰晋信医疗先锋混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>82.78</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>512610</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>嘉实中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>001558</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>159810</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>浦银安盛创业板ETF</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>012024</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>兴业聚乾混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>010505</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>011789</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>工银聚益混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>185</v>
+      </c>
+      <c r="D2" t="n">
+        <v>161.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>375</v>
+      </c>
+      <c r="D3" t="n">
+        <v>313.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>308</v>
+      </c>
+      <c r="D4" t="n">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>242</v>
+      </c>
+      <c r="D5" t="n">
+        <v>175.79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>231</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>178.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300347-泰格医药.xlsx
+++ b/数据整理/stocks/A股/创业板/300347-泰格医药.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -51636,7 +51637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51647,17 +51648,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -51667,14 +51688,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>185</v>
-      </c>
-      <c r="D2" t="n">
-        <v>161.95</v>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>155.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.2230</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -51683,14 +51726,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>375</v>
-      </c>
-      <c r="D3" t="n">
-        <v>313.65</v>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>130.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.8886</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -51699,14 +51764,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>308</v>
-      </c>
-      <c r="D4" t="n">
-        <v>261</v>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>180.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.7271</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -51715,14 +51802,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>242</v>
-      </c>
-      <c r="D5" t="n">
-        <v>175.79</v>
+          <t>006228</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>113.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.9962</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -51731,13 +51840,8599 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>004851</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>118.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.5107</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达沪深300医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>76.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3743</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006229</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>43.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.3030</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>37.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1530</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>40.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>64.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.1243</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>60.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.0459</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>31.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.0244</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501208</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>63.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.9899</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159781</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>68.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9871</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>50.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.8022</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>38.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.7751</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501009</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>34.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.6529</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.6038</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>44.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.5076</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信医疗保健行业股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>44.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.5062</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159783</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>50.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.4499</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>34.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.3997</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>31.71</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.2208</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>29.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.1045</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>34.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.0970</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.0889</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159780</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.0695</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.0327</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>19.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9525</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>17.30</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8979</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012223</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>信达澳银成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>70.53</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8966</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009163</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>18.24</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8482</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>17.38</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.8447</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7819</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159837</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>16.78</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.7635</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>72.54</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.7486</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>31.60</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.7363</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银河医药健康混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.7304</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010275</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>15.40</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.7176</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>20.94</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.7161</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.7045</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>159859</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.6944</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>515120</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.6893</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012475</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>平安优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>70.68</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.6827</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>501010</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.6797</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>81.88</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.6227</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012894</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.6226</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>14.18</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.6225</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012888</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>76.39</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.6049</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>159828</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国泰中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.6001</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012907</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏扬中证科创创业50指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.5695</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001043</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>工银美丽城镇主题股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>19.57</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.5636</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>11.47</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.5632</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>588380</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国中证科创创业50交易型开放式指数</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>19.42</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.5632</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>588400</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>19.26</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.5566</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.5563</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011373</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.5434</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>72.98</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.5386</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.5281</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>14.91</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.5233</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012895</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>天弘中证科创创业50指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>18.32</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.5038</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.5020</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>588300</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.4916</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000945</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.4650</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012473</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3965</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3791</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3655</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>588330</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华宝中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>12.24</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3488</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.3451</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.3247</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010314</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫内需增长混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.3231</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.3220</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.3210</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012224</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>信达澳银成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>70.53</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.3105</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>160219</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.3055</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>64.09</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2943</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>159938</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>广发中证全指医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>17.37</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2866</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012368</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2828</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>159782</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>银华中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>97.79</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2759</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2716</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>233007</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>大摩卓越成长混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2713</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010731</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2644</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>610006</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>信达澳银产业升级混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2643</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2626</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>014187</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2588</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>519655</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>银河现代服务主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.2490</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.2453</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001558</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.2409</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>159929</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>汇添富中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.2331</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.2294</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>159839</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>汇添富国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.2155</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.2085</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005137</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>长信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1956</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1892</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>002670</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1844</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>161035</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>富国中证医药主题指数增强型（LOF）</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1741</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1709</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>009507</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>159847</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>易方达中证医疗交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001559</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1438</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>516080</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>易方达中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1251</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>012898</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>000946</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>003876</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华宝沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>012908</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>鹏扬中证科创创业50指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>011743</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>17.89</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>23.29</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>005870</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>鹏华沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>011478</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>工银美丽城镇主题股票C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>007448</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>长信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>159760</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>泰康国证公共卫生与健康ETF</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>011788</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>工银聚益混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>30.38</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>970067</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>65.86</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>000904</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>银华回报灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>72.98</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>159748</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>富国中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>011181</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>009557</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>012889</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>76.39</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>010732</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>008072</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>景顺长城创业板综指增强</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>014188</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>163118</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>159849</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>招商中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>517110</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>009981</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>011374</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>010276</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>516060</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>工银瑞信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>516500</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>华夏中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>000199</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>国泰量化策略收益混合</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>010781</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>004987</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>诺德新享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>159858</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>南方中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>516930</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>民生加银中证生物科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>013441</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>西藏东财创新医疗六个月定开混合</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>002671</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>159835</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>建信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>96.29</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>160635</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>008551</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>012476</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>平安优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>70.68</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>77.27</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>58.32</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>011744</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>华夏兴源稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>23.29</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>159991</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>招商创业板大盘ETF</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>012401</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>004394</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创优灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>012899</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>兴银中证科创创业50指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>970068</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟消费升级混合B</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>65.86</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>012369</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>012474</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>009753</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>012598</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>014602</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>嘉实中证医疗指数A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>009982</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>005237</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>008552</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>012402</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>010782</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>014603</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>嘉实中证医疗指数C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>970069</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>65.86</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>014157</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>国泰君安创新医药混合</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>005536</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>渤海汇金量化成长混合</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>010584</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>渤海汇金新动能主题混合</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>290005</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>泰信优势增长混合</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>007404</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>华宝沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>012599</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>010366</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>005238</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>001059</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>中金绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>48.86</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>003877</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>512610</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>嘉实中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>62.02</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>58.32</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>009754</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>011182</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合C</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>005405</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>中金金序量化蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>003878</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>富国久利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>010505</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>72.54</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>015176</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>010144</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H226" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>005406</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>中金金序量化蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>011789</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>工银聚益混合C</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>30.38</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>227</v>
+      </c>
+      <c r="D2" t="n">
+        <v>108.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>185</v>
+      </c>
+      <c r="D3" t="n">
+        <v>161.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>375</v>
+      </c>
+      <c r="D4" t="n">
+        <v>313.65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>308</v>
+      </c>
+      <c r="D5" t="n">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>242</v>
+      </c>
+      <c r="D6" t="n">
+        <v>175.79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>231</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>178.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300347-泰格医药.xlsx
+++ b/数据整理/stocks/A股/创业板/300347-泰格医药.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -60315,7 +60316,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60326,17 +60327,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -60346,14 +60367,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>227</v>
-      </c>
-      <c r="D2" t="n">
-        <v>108.6</v>
+          <t>003095</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>710.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>42.0089</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -60362,14 +60405,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>185</v>
-      </c>
-      <c r="D3" t="n">
-        <v>161.95</v>
+          <t>003096</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>384.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>22.7511</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -60378,14 +60443,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>375</v>
-      </c>
-      <c r="D4" t="n">
-        <v>313.65</v>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>138.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.4975</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -60394,14 +60481,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>308</v>
-      </c>
-      <c r="D5" t="n">
-        <v>261</v>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>145.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.6180</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -60410,14 +60519,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>242</v>
-      </c>
-      <c r="D6" t="n">
-        <v>175.79</v>
+          <t>006228</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>126.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.3826</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -60426,13 +60557,8571 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>004851</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>100.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.3432</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519712</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>71.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.6056</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.3323</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达沪深300医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.2165</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009714</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.7804</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.5262</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006229</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>49.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.5080</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519697</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银优势行业混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.3587</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.1480</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>43.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.1125</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.8654</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>交银施罗德持续成长主题混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>39.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.7801</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信医疗保健行业股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>47.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.7585</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.7055</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>42.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.6269</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014046</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>42.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.6269</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501009</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.6070</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012223</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信达澳银成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>20.73</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.3039</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.54</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.2990</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011435</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>28.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.69</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.0039</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012417</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15.59</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.9588</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.9391</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.8958</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>19.86</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8758</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159837</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16.78</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8424</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8396</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159859</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.8130</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.8084</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009163</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.8055</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>21.41</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.7965</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>74.32</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.7953</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159828</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.7196</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>515120</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>14.39</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.7109</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>090003</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.7042</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012475</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>25.61</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.7017</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>501010</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.6720</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5963</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011373</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.5786</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011335</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银河医药健康混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.5745</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000945</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>15.34</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.5522</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.5455</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.5366</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159938</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发中证全指医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>29.89</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.5261</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.5172</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>13.62</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.5067</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012473</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.5002</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>233007</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>大摩卓越成长混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4967</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4846</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010314</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫内需增长混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4824</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>516820</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>平安中证医药及医疗器械创新交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4664</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011673</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4417</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.4372</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012224</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>信达澳银成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.4359</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.4186</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011436</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中欧研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>79.69</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.4098</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3626</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009507</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3539</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3328</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3271</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3250</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2994</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2849</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>160219</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2823</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009508</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2815</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>610006</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>信达澳银产业升级混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2813</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012368</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2812</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>040016</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2734</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2722</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001558</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2563</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2517</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2509</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010731</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2455</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2442</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>013037</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长城大健康混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2411</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2395</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>159929</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>汇添富中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2340</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001280</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2324</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011371</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2285</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>159839</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇添富国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2210</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.2060</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010222</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫民丰盈和一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.2057</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>040020</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华安升级主题混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.2033</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>161035</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>富国中证医药主题指数增强型（LOF）</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.2004</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1967</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>013885</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>交银阿尔法核心混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>82.68</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1945</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1943</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>014030</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>008786</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>长城健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1815</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>97.38</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1772</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1770</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1756</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1724</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>013183</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1720</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>002269</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>银华大数据灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011082</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>159847</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>易方达中证医疗交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1561</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1510</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001559</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>005498</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>银华积极成长混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1486</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>014045</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>银华积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1486</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>516080</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>易方达中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1276</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>015208</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>008290</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>华安现代生活混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>517120</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深创新药产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>000946</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.1163</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>95.16</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>003581</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>012086</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>013483</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>50.70</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>002326</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>银华聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>014867</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>159748</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>富国中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>163118</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>517110</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>010732</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>516500</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>华夏中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>159760</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>泰康国证公共卫生与健康ETF</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>159849</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>招商中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>011374</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>招商前沿医疗保健股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>000904</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>银华回报灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>516060</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>工银瑞信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>159838</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>博时中证医药50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>97.44</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>004987</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>诺德新享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>970067</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>850013</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>海通品质升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>159858</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>南方中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>011674</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>501007</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>516930</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>民生加银中证生物科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>013441</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>西藏东财创新医疗六个月定开混合</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>78.42</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>008551</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>159835</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>建信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>014603</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>嘉实中证医疗指数C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>012476</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>平安优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>75.65</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>012474</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>160635</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>011536</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>29.25</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>012598</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>970068</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟消费升级混合B</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>012087</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>007056</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>银华积极精选混合</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>012369</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>005237</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>012401</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>008552</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>西藏东财中证医药卫生指数C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>005288</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>011372</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>011537</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>29.25</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>013038</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>长城大健康混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>501008</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>汇添富中证互联网医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>010584</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>渤海汇金新动能主题混合</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>970069</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>兴证资管金麒麟消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>014157</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>国泰君安创新医药混合</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>005287</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>012599</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>014129</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深创新药产业指数C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>007111</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>新疆前海联合国民健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>012402</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>天弘中证医药指数增强C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>290005</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>泰信优势增长混合</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>014128</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深创新药产业指数A</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>014820</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>华安创新医药锐选量化股票A</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>005238</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>014602</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>嘉实中证医疗指数A</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>002388</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>013873</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>平安中证医药及医疗器械创新指数A</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>159810</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>浦银安盛创业板ETF</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>010366</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>鹏华中证医药卫生指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>014933</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>64.34</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>013874</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>平安中证医药及医疗器械创新指数C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>005997</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>512610</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>嘉实中证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>98.37</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>013080</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>015176</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万医药生物指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>010144</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>国泰国证医药卫生行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>005405</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>中金金序量化蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>74.32</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>005021</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>渤海汇金量化汇盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>010991</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合C</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>015065</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>005406</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>中金金序量化蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H224" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>851399</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>海通品质升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G225" t="n">
+        <v>0</v>
+      </c>
+      <c r="H225" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>015066</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>75.65</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>014869</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>014976</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>华安升级主题混合C</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>227</v>
+      </c>
+      <c r="D2" t="n">
+        <v>168.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>227</v>
+      </c>
+      <c r="D3" t="n">
+        <v>108.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>185</v>
+      </c>
+      <c r="D4" t="n">
+        <v>161.95</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>375</v>
+      </c>
+      <c r="D5" t="n">
+        <v>313.65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>308</v>
+      </c>
+      <c r="D6" t="n">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>242</v>
+      </c>
+      <c r="D7" t="n">
+        <v>175.79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>231</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>178.33</v>
       </c>
     </row>
